--- a/xls/work_classification_visualization.xlsx
+++ b/xls/work_classification_visualization.xlsx
@@ -1043,8 +1043,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="330902032"/>
-        <c:axId val="330900912"/>
+        <c:axId val="261615424"/>
+        <c:axId val="261612624"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1139,7 +1139,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="330902032"/>
+        <c:axId val="261615424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330900912"/>
+        <c:crossAx val="261612624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="330900912"/>
+        <c:axId val="261612624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330902032"/>
+        <c:crossAx val="261615424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,8 +2208,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="235186704"/>
-        <c:axId val="235186144"/>
+        <c:axId val="267098352"/>
+        <c:axId val="262646496"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2304,7 +2304,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="235186704"/>
+        <c:axId val="267098352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235186144"/>
+        <c:crossAx val="262646496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="235186144"/>
+        <c:axId val="262646496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235186704"/>
+        <c:crossAx val="267098352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2751,8 +2751,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="337504608"/>
-        <c:axId val="337507408"/>
+        <c:axId val="84748224"/>
+        <c:axId val="84745984"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2847,7 +2847,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -2874,7 +2874,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -2900,7 +2900,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$3:$E$3</c15:sqref>
@@ -2933,7 +2933,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -2960,7 +2960,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -2986,7 +2986,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$4:$E$4</c15:sqref>
@@ -3019,7 +3019,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -3046,7 +3046,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3072,7 +3072,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$5:$E$5</c15:sqref>
@@ -3105,7 +3105,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$7</c15:sqref>
@@ -3132,7 +3132,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3158,7 +3158,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$7:$E$7</c15:sqref>
@@ -3191,7 +3191,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$10</c15:sqref>
@@ -3220,7 +3220,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3246,7 +3246,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$10:$E$10</c15:sqref>
@@ -3279,7 +3279,7 @@
                 <c:order val="9"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$11</c15:sqref>
@@ -3308,7 +3308,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3334,7 +3334,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$11:$E$11</c15:sqref>
@@ -3367,7 +3367,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -3396,7 +3396,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3422,7 +3422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$12:$E$12</c15:sqref>
@@ -3455,7 +3455,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$13</c15:sqref>
@@ -3484,7 +3484,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
@@ -3510,7 +3510,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$13:$E$13</c15:sqref>
@@ -3541,7 +3541,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337504608"/>
+        <c:axId val="84748224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337507408"/>
+        <c:crossAx val="84745984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,7 +3592,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="337507408"/>
+        <c:axId val="84745984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3643,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337504608"/>
+        <c:crossAx val="84748224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5716,7 +5716,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/work_classification_visualization.xlsx
+++ b/xls/work_classification_visualization.xlsx
@@ -1043,8 +1043,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261615424"/>
-        <c:axId val="261612624"/>
+        <c:axId val="321557840"/>
+        <c:axId val="321558400"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1139,7 +1139,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261615424"/>
+        <c:axId val="321557840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1182,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261612624"/>
+        <c:crossAx val="321558400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261612624"/>
+        <c:axId val="321558400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261615424"/>
+        <c:crossAx val="321557840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2208,8 +2208,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="267098352"/>
-        <c:axId val="262646496"/>
+        <c:axId val="307705408"/>
+        <c:axId val="307705968"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2304,7 +2304,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="267098352"/>
+        <c:axId val="307705408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2347,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="262646496"/>
+        <c:crossAx val="307705968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +2355,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="262646496"/>
+        <c:axId val="307705968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2406,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267098352"/>
+        <c:crossAx val="307705408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2502,6 +2502,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Just</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> the Top 3</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2751,8 +2781,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="84748224"/>
-        <c:axId val="84745984"/>
+        <c:axId val="307714928"/>
+        <c:axId val="307715488"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3541,7 +3571,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84748224"/>
+        <c:axId val="307714928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3584,7 +3614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84745984"/>
+        <c:crossAx val="307715488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3592,7 +3622,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84745984"/>
+        <c:axId val="307715488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3673,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84748224"/>
+        <c:crossAx val="307714928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5716,7 +5746,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/work_classification_visualization.xlsx
+++ b/xls/work_classification_visualization.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>autobiography</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>drama</t>
+  </si>
+  <si>
+    <t>folk literature</t>
+  </si>
+  <si>
+    <t>historical novel</t>
+  </si>
+  <si>
+    <t>letters</t>
+  </si>
+  <si>
+    <t>no classification</t>
+  </si>
+  <si>
+    <t>periodicals</t>
+  </si>
+  <si>
+    <t>popular poetry</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>war fiction</t>
   </si>
 </sst>
 </file>
@@ -162,13 +189,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Type of Work Analyzed</a:t>
+              <a:t>Types of Work by Year Cited</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by Year</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -204,7 +226,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.6580927384076991E-2"/>
+          <c:y val="0.17171296296296296"/>
+          <c:w val="0.90286351706036749"/>
+          <c:h val="0.42516732283464564"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -348,7 +380,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -366,7 +398,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>fiction</c:v>
+                  <c:v>drama</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -422,10 +454,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,7 +472,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>manuscript note</c:v>
+                  <c:v>fiction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -493,13 +525,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,7 +546,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>novel</c:v>
+                  <c:v>folk literature</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -567,13 +599,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +620,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poetic cycle</c:v>
+                  <c:v>historical novel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -662,7 +694,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>poetry</c:v>
+                  <c:v>letters</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -717,13 +749,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -738,7 +770,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>prose</c:v>
+                  <c:v>manuscript note</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -793,89 +825,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>short story</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$10:$E$10</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$10:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +846,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>source study</c:v>
+                  <c:v>novel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -945,13 +901,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,7 +922,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>translation</c:v>
+                  <c:v>periodicals</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1021,13 +977,703 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>poetic cycle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$13:$E$13</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>poetry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$14:$E$14</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$14:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>popular poetry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$15:$E$15</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$15:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$16:$E$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short story</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$17:$E$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>song</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$18:$E$18</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$18:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>source study</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$19:$E$19</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$19:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>translation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$20:$E$20</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>war fiction</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$21:$E$21</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1043,34 +1689,34 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="321557840"/>
-        <c:axId val="321558400"/>
+        <c:axId val="343335168"/>
+        <c:axId val="343334608"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13</c15:sqref>
+                          <c15:sqref>Sheet1!$A$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total</c:v>
+                        <c:v>no classification</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
+                    <a:schemeClr val="accent3">
                       <a:lumMod val="60000"/>
                     </a:schemeClr>
                   </a:solidFill>
@@ -1111,10 +1757,10 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
-                          <c15:sqref>Sheet1!$B$13:$E$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$E$10</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$D$13</c15:sqref>
+                          <c15:sqref>Sheet1!$B$10:$D$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -1122,13 +1768,101 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>25</c:v>
+                        <c:v>17</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25</c:v>
+                        <c:v>2</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18</c:v>
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$22:$E$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$22:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1139,7 +1873,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="321557840"/>
+        <c:axId val="343335168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1182,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321558400"/>
+        <c:crossAx val="343334608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1190,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="321558400"/>
+        <c:axId val="343334608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321557840"/>
+        <c:crossAx val="343335168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1337,6 +2071,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Most Prevalent</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Work Types</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1372,604 +2136,8 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>autobiography</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$E$2</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$2:$D$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>criticism</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$3:$E$3</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$3:$D$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fiction</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$4:$E$4</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$4:$D$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>manuscript note</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$5:$E$5</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>novel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$6:$E$6</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$6:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>poetic cycle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$7:$E$7</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$7:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>poetry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$8:$E$8</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$8:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>prose</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$9:$E$9</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Sheet1!$B$9:$D$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:ser>
           <c:idx val="8"/>
           <c:order val="8"/>
@@ -1979,7 +2147,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>short story</c:v>
+                  <c:v>no classification</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2034,13 +2202,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2055,7 +2223,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>source study</c:v>
+                  <c:v>novel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2110,36 +2278,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:idx val="12"/>
+          <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$12</c:f>
+              <c:f>Sheet1!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>translation</c:v>
+                  <c:v>poetry</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -2177,22 +2346,176 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$12:$E$12</c15:sqref>
+                    <c15:sqref>Sheet1!$B$14:$E$14</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Sheet1!$B$12:$D$12</c:f>
+              <c:f>Sheet1!$B$14:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>prose</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$16:$E$16</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$16:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>short story</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Cited in 1950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cited in 1980</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cited in 2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$17:$E$17</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2206,38 +2529,36 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="307705408"/>
-        <c:axId val="307705968"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="410135840"/>
+        <c:axId val="410135280"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
               <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
+                <c:idx val="0"/>
+                <c:order val="0"/>
                 <c:tx>
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13</c15:sqref>
+                          <c15:sqref>Sheet1!$A$2</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>Total</c:v>
+                        <c:v>autobiography</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
+                    <a:schemeClr val="accent1"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2276,6 +2597,788 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$2:$E$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$2:$D$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>criticism</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$3:$E$3</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$3:$D$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>drama</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$4:$E$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$4:$D$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>fiction</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$5:$E$5</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$5:$D$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>folk literature</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$6:$E$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$6:$D$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>historical novel</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$7:$E$7</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$7:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>letters</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$8:$E$8</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$8:$D$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>manuscript note</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$9:$E$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$9:$D$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="10"/>
+                <c:order val="10"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>periodicals</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$12:$E$12</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$12:$D$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="11"/>
+                <c:order val="11"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>poetic cycle</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
                           <c15:sqref>Sheet1!$B$13:$E$13</c15:sqref>
                         </c15:fullRef>
                         <c15:formulaRef>
@@ -2287,13 +3390,544 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>25</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>25</c:v>
+                        <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>18</c:v>
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="13"/>
+                <c:order val="13"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>popular poetry</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$15:$E$15</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$15:$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="16"/>
+                <c:order val="16"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>song</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$18:$E$18</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$18:$D$18</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="17"/>
+                <c:order val="17"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>source study</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="80000"/>
+                      <a:lumOff val="20000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$19:$E$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$19:$D$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="18"/>
+                <c:order val="18"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>translation</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$20:$E$20</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$20:$D$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="19"/>
+                <c:order val="19"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>war fiction</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$21:$E$21</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$21:$D$21</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Total</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="80000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$1:$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Cited in 1950</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Cited in 1980</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Cited in 2010</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Sheet1!$B$22:$E$22</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$B$22:$D$22</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2304,7 +3938,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="307705408"/>
+        <c:axId val="410135840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +3981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307705968"/>
+        <c:crossAx val="410135280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2355,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="307705968"/>
+        <c:axId val="410135280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,1274 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307705408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Just</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> the Top 3</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>novel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>poetry</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>prose</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Cited in 1950</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cited in 1980</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cited in 2010</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Total</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$E$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="307714928"/>
-        <c:axId val="307715488"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>autobiography</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$2:$E$2</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>criticism</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$3:$E$3</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>fiction</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$4:$E$4</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>manuscript note</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$5:$E$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>poetic cycle</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$7:$E$7</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>1</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="8"/>
-                <c:order val="8"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>short story</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent3">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$10:$E$10</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="9"/>
-                <c:order val="9"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>source study</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$11:$E$11</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="10"/>
-                <c:order val="10"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>translation</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$12:$E$12</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>2</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="11"/>
-                <c:order val="11"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$1:$E$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>Cited in 1950</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Cited in 1980</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>Cited in 2010</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>Total</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Sheet1!$B$13:$E$13</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>68</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="307714928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="307715488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="307715488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="307714928"/>
+        <c:crossAx val="410135840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3795,46 +4162,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4378,511 +4705,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5389,20 +5211,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5419,20 +5241,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5442,36 +5264,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5743,10 +5535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5793,27 +5585,27 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -5821,41 +5613,41 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="E5" s="1">
         <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5872,81 +5664,81 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -5956,20 +5748,173 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1">
-        <v>18</v>
-      </c>
-      <c r="E13" s="1">
-        <v>68</v>
+      <c r="B22">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/xls/work_classification_visualization.xlsx
+++ b/xls/work_classification_visualization.xlsx
@@ -1689,8 +1689,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="343335168"/>
-        <c:axId val="343334608"/>
+        <c:axId val="266608000"/>
+        <c:axId val="256514576"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1787,7 +1787,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$22</c15:sqref>
@@ -1873,7 +1873,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="343335168"/>
+        <c:axId val="266608000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343334608"/>
+        <c:crossAx val="256514576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="343334608"/>
+        <c:axId val="256514576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343335168"/>
+        <c:crossAx val="266608000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2531,8 +2531,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="410135840"/>
-        <c:axId val="410135280"/>
+        <c:axId val="339087248"/>
+        <c:axId val="339087808"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2627,7 +2627,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$3</c15:sqref>
@@ -2713,7 +2713,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$4</c15:sqref>
@@ -2799,7 +2799,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$5</c15:sqref>
@@ -2885,7 +2885,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$6</c15:sqref>
@@ -2971,7 +2971,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$7</c15:sqref>
@@ -3057,7 +3057,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$8</c15:sqref>
@@ -3145,7 +3145,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$9</c15:sqref>
@@ -3233,7 +3233,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$12</c15:sqref>
@@ -3321,7 +3321,7 @@
                 <c:order val="11"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$13</c15:sqref>
@@ -3409,7 +3409,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$15</c15:sqref>
@@ -3498,7 +3498,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$18</c15:sqref>
@@ -3587,7 +3587,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$19</c15:sqref>
@@ -3676,7 +3676,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$20</c15:sqref>
@@ -3764,7 +3764,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$21</c15:sqref>
@@ -3852,7 +3852,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$22</c15:sqref>
@@ -3938,7 +3938,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="410135840"/>
+        <c:axId val="339087248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410135280"/>
+        <c:crossAx val="339087808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3989,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410135280"/>
+        <c:axId val="339087808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410135840"/>
+        <c:crossAx val="339087248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5537,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/xls/work_classification_visualization.xlsx
+++ b/xls/work_classification_visualization.xlsx
@@ -1689,8 +1689,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="266608000"/>
-        <c:axId val="256514576"/>
+        <c:axId val="252568288"/>
+        <c:axId val="252568848"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -1873,7 +1873,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="266608000"/>
+        <c:axId val="252568288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1916,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256514576"/>
+        <c:crossAx val="252568848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1924,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="256514576"/>
+        <c:axId val="252568848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +1975,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="266608000"/>
+        <c:crossAx val="252568288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2091,7 +2091,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Most Prevalent</a:t>
+              <a:t>Fig. 2: Most Prevalent</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2531,8 +2531,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="339087248"/>
-        <c:axId val="339087808"/>
+        <c:axId val="253028432"/>
+        <c:axId val="253028992"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -3938,7 +3938,7 @@
         </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339087248"/>
+        <c:axId val="253028432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3981,7 +3981,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339087808"/>
+        <c:crossAx val="253028992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3989,7 +3989,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339087808"/>
+        <c:axId val="253028992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4040,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339087248"/>
+        <c:crossAx val="253028432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5537,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
